--- a/Monthly LEIs from FactSet.xlsx
+++ b/Monthly LEIs from FactSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\EPS Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D2E22F-60C2-4726-AFB3-8B0A0FCA5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57D3AF-99DD-4E9A-A8C4-370EF4274582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28750" yWindow="-16850" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="Q342" sqref="Q342"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7676,6 +7676,43 @@
         <v>-0.37223499999999998</v>
       </c>
     </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B364">
+        <v>44.6</v>
+      </c>
+      <c r="C364">
+        <v>53</v>
+      </c>
+      <c r="D364">
+        <v>86.3</v>
+      </c>
+      <c r="E364">
+        <v>-48.3</v>
+      </c>
+      <c r="F364">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B365">
+        <v>46.1</v>
+      </c>
+      <c r="C365">
+        <v>59.4</v>
+      </c>
+      <c r="D365">
+        <v>81.7</v>
+      </c>
+      <c r="E365">
+        <v>-42.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monthly LEIs from FactSet.xlsx
+++ b/Monthly LEIs from FactSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\EPS Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57D3AF-99DD-4E9A-A8C4-370EF4274582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2782929-339A-4CC1-8CAC-0A46294B58F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -7707,10 +7707,70 @@
         <v>59.4</v>
       </c>
       <c r="D365">
-        <v>81.7</v>
+        <v>82.8</v>
       </c>
       <c r="E365">
-        <v>-42.6</v>
+        <v>-41</v>
+      </c>
+      <c r="F365">
+        <v>-0.71907399999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B366">
+        <v>47.1</v>
+      </c>
+      <c r="C366">
+        <v>57.4</v>
+      </c>
+      <c r="D366">
+        <v>91.9</v>
+      </c>
+      <c r="E366">
+        <v>-44.2</v>
+      </c>
+      <c r="F366">
+        <v>-0.86702299999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B367">
+        <v>50.4</v>
+      </c>
+      <c r="C367">
+        <v>53.7</v>
+      </c>
+      <c r="D367">
+        <v>93.7</v>
+      </c>
+      <c r="E367">
+        <v>-47.7</v>
+      </c>
+      <c r="F367">
+        <v>-0.82791700000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B368">
+        <v>52.5</v>
+      </c>
+      <c r="C368">
+        <v>54.2</v>
+      </c>
+      <c r="D368">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E368">
+        <v>-59.1</v>
       </c>
     </row>
   </sheetData>
